--- a/cw/01-Excel/2/Activities/11-Ins_Lookups/Solved/Lookups.xlsx
+++ b/cw/01-Excel/2/Activities/11-Ins_Lookups/Solved/Lookups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kaboni/Desktop/RBootcamp/RBootcamp/cw/01-Excel/2/Activities/11-Ins_Lookups/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD95E08-D473-084A-8525-63166D15C45D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5CA64-DAAD-3741-B627-1BC596F87A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28420" yWindow="-4320" windowWidth="25600" windowHeight="15540" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,11 +584,12 @@
         <v>Printer</v>
       </c>
       <c r="K2" s="8">
-        <v>104</v>
+        <f ca="1">RANDBETWEEN(101,104)</f>
+        <v>101</v>
       </c>
       <c r="L2" t="str">
-        <f>VLOOKUP(K2,$E$3:$G$8,3)</f>
-        <v>Printer</v>
+        <f ca="1">VLOOKUP(K2,$E$3:$G$8,3)</f>
+        <v>Computer</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -612,15 +613,16 @@
         <v>110</v>
       </c>
       <c r="I3" s="8" t="e">
-        <f t="shared" ref="I3:I24" si="1">VLOOKUP(H3,$E$3:$G$7,3,FALSE)</f>
+        <f t="shared" ref="I3:I17" si="1">VLOOKUP(H3,$E$3:$G$7,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="8">
-        <v>103</v>
+        <f t="shared" ref="K3:K21" ca="1" si="2">RANDBETWEEN(101,104)</f>
+        <v>101</v>
       </c>
       <c r="L3" s="8" t="str">
-        <f t="shared" ref="L3:L9" si="2">VLOOKUP(K3,$E$3:$G$8,3)</f>
-        <v>Mouse</v>
+        <f t="shared" ref="L3:L21" ca="1" si="3">VLOOKUP(K3,$E$3:$G$8,3)</f>
+        <v>Computer</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -648,11 +650,12 @@
         <v>Printer</v>
       </c>
       <c r="K4" s="8">
-        <v>104</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
       </c>
       <c r="L4" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Printer</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Computer</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -680,11 +683,12 @@
         <v>Computer</v>
       </c>
       <c r="K5" s="8">
-        <v>101</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
       </c>
       <c r="L5" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Computer</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Mouse</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -712,11 +716,12 @@
         <v>Keyboard</v>
       </c>
       <c r="K6" s="8">
-        <v>102</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Keyboard</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Printer</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -744,11 +749,12 @@
         <v>Mouse</v>
       </c>
       <c r="K7" s="8">
-        <v>103</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>102</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Mouse</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Keyboard</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -767,11 +773,12 @@
         <v>Computer</v>
       </c>
       <c r="K8" s="8">
-        <v>101</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Computer</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Printer</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -790,11 +797,12 @@
         <v>Printer</v>
       </c>
       <c r="K9" s="8">
-        <v>104</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
       </c>
       <c r="L9" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Printer</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>Computer</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -812,7 +820,14 @@
         <f t="shared" si="1"/>
         <v>Computer</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Printer</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -829,7 +844,14 @@
         <f t="shared" si="1"/>
         <v>Keyboard</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="K11" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Mouse</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="8">
@@ -839,7 +861,14 @@
         <f t="shared" si="1"/>
         <v>Computer</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Mouse</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="8">
@@ -849,6 +878,14 @@
         <f t="shared" si="1"/>
         <v>Keyboard</v>
       </c>
+      <c r="K13" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Computer</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" s="8">
@@ -858,6 +895,14 @@
         <f t="shared" si="1"/>
         <v>Mouse</v>
       </c>
+      <c r="K14" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Printer</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="8">
@@ -867,6 +912,14 @@
         <f t="shared" si="1"/>
         <v>Computer</v>
       </c>
+      <c r="K15" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Keyboard</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="8">
@@ -876,8 +929,16 @@
         <f t="shared" si="1"/>
         <v>Computer</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Mouse</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H17" s="8">
         <v>102</v>
       </c>
@@ -885,26 +946,66 @@
         <f t="shared" si="1"/>
         <v>Keyboard</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Computer</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Computer</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Printer</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Computer</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Printer</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I24" s="8"/>
     </row>
   </sheetData>
